--- a/data/excel/Barcha-royhatdan-otkanlar.xlsx
+++ b/data/excel/Barcha-royhatdan-otkanlar.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,103 +410,812 @@
         <v>tel_raqam</v>
       </c>
       <c r="C1" t="str">
-        <v>userName</v>
+        <v>addedAt</v>
       </c>
       <c r="D1" t="str">
-        <v>file</v>
+        <v>clientName</v>
       </c>
       <c r="E1" t="str">
-        <v>addedAt</v>
+        <v>clientNumber</v>
+      </c>
+      <c r="F1" t="str">
+        <v>description</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Akrom</v>
+        <v>Ulug'bek</v>
       </c>
       <c r="B2" t="str">
-        <v>+998971234567</v>
+        <v>+998977622003</v>
       </c>
       <c r="C2" t="str">
-        <v>@Khodzas</v>
-      </c>
-      <c r="D2" t="str">
-        <v>AgACAgIAAxkDAAIBnWPS4RuoN-3uRg5OnJVnIc4GY63JAALewzEbyG-ZSl3Hs0qHmbgRAQADAgADcwADLQQ</v>
-      </c>
-      <c r="E2" t="str">
-        <v>2023-01-26T20:22:52.061Z</v>
+        <v>2023-01-27T10:22:43.666Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Akrom</v>
+        <v>Ulug'bek</v>
       </c>
       <c r="B3" t="str">
-        <v>+998971234567</v>
+        <v>+998977622003</v>
       </c>
       <c r="C3" t="str">
-        <v>@Khodzas</v>
-      </c>
-      <c r="D3" t="str">
-        <v>AgACAgIAAxkDAAIBimPS2eu662RIPrny90Bwpkzqg1C8AALewzEbyG-ZSl3Hs0qHmbgRAQADAgADcwADLQQ</v>
-      </c>
-      <c r="E3" t="str">
-        <v>2023-01-26T19:52:11.941Z</v>
+        <v>2023-01-27T10:22:36.133Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Akrom</v>
+        <v>Ulug'bek</v>
       </c>
       <c r="B4" t="str">
-        <v>+998971234567</v>
+        <v>+998977622003</v>
       </c>
       <c r="C4" t="str">
-        <v>@Khodzas</v>
-      </c>
-      <c r="D4" t="str">
-        <v>AgACAgIAAxkDAAIBiWPS2CkfYC7ybdvc9kF9R3Ug_90MAAICwzEbyG-ZSvLPSaktjCjvAQADAgADcwADLQQ</v>
-      </c>
-      <c r="E4" t="str">
-        <v>2023-01-26T19:44:41.454Z</v>
+        <v>2023-01-27T10:22:30.871Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Akrom</v>
+        <v>dlfvejwnmqxe</v>
       </c>
       <c r="B5" t="str">
-        <v>+998971234567</v>
+        <v>(32) 143 12 42</v>
       </c>
       <c r="C5" t="str">
-        <v>@Khodzas</v>
-      </c>
-      <c r="D5" t="str">
-        <v>AgACAgIAAxkDAAIBhmPSz1_63VeYUNuWslnW8sE0xJ-_AAICwzEbyG-ZSvLPSaktjCjvAQADAgADcwADLQQ</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2023-01-26T19:07:11.252Z</v>
+        <v>2023-01-27T07:30:03.564Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Abdulaziz</v>
+        <v>Ulug'bek</v>
       </c>
       <c r="B6" t="str">
-        <v>+99897777777</v>
+        <v>+998977622003</v>
       </c>
       <c r="C6" t="str">
-        <v>@Khodzas</v>
-      </c>
-      <c r="D6" t="str">
-        <v>AgACAgIAAxkDAAIBhWPSztzHNAPJNMysKPdeLK4Lm9qLAALiwjEbyG-ZSq-jGE5LNTpEAQADAgADcwADLQQ</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2023-01-26T19:05:00.135Z</v>
+        <v>2023-01-26T22:55:33.312Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B7" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2023-01-26T22:55:31.619Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B8" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2023-01-26T22:55:29.665Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B9" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2023-01-26T22:55:27.664Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B10" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2023-01-26T22:55:25.848Z</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B11" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2023-01-26T22:55:23.978Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B12" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2023-01-26T22:55:22.196Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B13" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2023-01-26T22:55:20.289Z</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B14" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2023-01-26T22:55:18.522Z</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B15" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2023-01-26T22:55:16.761Z</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B16" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2023-01-26T22:55:15.125Z</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B17" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2023-01-26T22:55:13.326Z</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B18" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C18" t="str">
+        <v>2023-01-26T22:55:11.376Z</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B19" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C19" t="str">
+        <v>2023-01-26T22:55:08.573Z</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B20" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C20" t="str">
+        <v>2023-01-26T20:48:55.882Z</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B21" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C21" t="str">
+        <v>2023-01-26T20:47:48.842Z</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="B22" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2023-01-26T20:39:11.764Z</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>2023-01-26T14:55:47.680Z</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="E23" t="str">
+        <v>+9989776220034</v>
+      </c>
+      <c r="F23" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>2023-01-26T14:54:41.559Z</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="E24" t="str">
+        <v>+9989776220034</v>
+      </c>
+      <c r="F24" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>2023-01-26T14:53:01.403Z</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E25" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F25" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>2023-01-26T14:52:05.159Z</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E26" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F26" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>2023-01-26T14:51:09.037Z</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E27" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F27" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>2023-01-26T14:50:24.803Z</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E28" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F28" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>2023-01-26T14:49:35.646Z</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E29" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F29" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>2023-01-26T14:48:56.110Z</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E30" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F30" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>2023-01-26T14:44:13.004Z</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E31" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F31" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>2023-01-26T14:11:45.638Z</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E32" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F32" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>2023-01-26T14:10:24.420Z</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E33" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F33" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>2023-01-26T14:09:35.551Z</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E34" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F34" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>2023-01-26T14:05:06.661Z</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E35" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F35" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>2023-01-26T14:04:01.796Z</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E36" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F36" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>2023-01-26T14:03:58.891Z</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E37" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F37" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>2023-01-26T14:03:07.083Z</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E38" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F38" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>2023-01-26T13:58:54.861Z</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E39" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F39" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>2023-01-26T13:58:52.414Z</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E40" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F40" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>2023-01-26T13:55:38.766Z</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E41" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F41" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>2023-01-26T13:52:21.756Z</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E42" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F42" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>2023-01-26T13:49:51.311Z</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E43" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F43" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>2023-01-26T13:46:18.364Z</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E44" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F44" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>2023-01-26T13:42:47.105Z</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E45" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F45" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>2023-01-26T13:35:48.861Z</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E46" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F46" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>2023-01-26T12:58:56.341Z</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E47" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F47" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>2023-01-26T12:58:50.626Z</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E48" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F48" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>2023-01-26T12:57:19.499Z</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E49" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F49" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>2023-01-26T12:53:34.021Z</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E50" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F50" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>2023-01-26T12:35:01.164Z</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Gulom</v>
+      </c>
+      <c r="E51" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F51" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>2023-01-26T01:23:44.047Z</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Asadbek</v>
+      </c>
+      <c r="E52" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F52" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>2023-01-26T00:57:21.238Z</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="E53" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F53" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>2023-01-26T00:55:43.640Z</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="E54" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F54" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>2023-01-26T00:54:25.575Z</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Ulug'bek</v>
+      </c>
+      <c r="E55" t="str">
+        <v>+9989776220034</v>
+      </c>
+      <c r="F55" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>2023-01-13T23:21:58.068Z</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Makhmudkhodzaev Izzat</v>
+      </c>
+      <c r="E56" t="str">
+        <v>+9989776220034</v>
+      </c>
+      <c r="F56" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>2023-01-13T23:21:30.264Z</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Makhmudkhodzaev Izzat</v>
+      </c>
+      <c r="E57" t="str">
+        <v>+9989776220034</v>
+      </c>
+      <c r="F57" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>2023-01-13T23:20:03.228Z</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Makhmudkhodzaev Izzat</v>
+      </c>
+      <c r="E58" t="str">
+        <v>+9989776220034</v>
+      </c>
+      <c r="F58" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>2023-01-13T23:18:02.092Z</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Makhmudkhodzaev Izzat</v>
+      </c>
+      <c r="E59" t="str">
+        <v>+9989776220034</v>
+      </c>
+      <c r="F59" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>2023-01-13T23:17:31.745Z</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Makhmudkhodzaev Izzat</v>
+      </c>
+      <c r="E60" t="str">
+        <v>+9989776220034</v>
+      </c>
+      <c r="F60" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>2023-01-13T23:16:19.718Z</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Makhmudkhodzaev Izzat</v>
+      </c>
+      <c r="E61" t="str">
+        <v>+998977622003</v>
+      </c>
+      <c r="F61" t="str">
+        <v>19 yosh</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>2023-01-13T23:15:59.571Z</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Makhmudkhodzaev Izzat</v>
+      </c>
+      <c r="E62" t="str">
+        <v>977622003</v>
+      </c>
+      <c r="F62" t="str">
+        <v>19 yosh</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F62"/>
   </ignoredErrors>
 </worksheet>
 </file>